--- a/数据整理/stocks/A股/科创板/688005-容百科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688005-容百科技.xlsx
@@ -451,743 +451,996 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>73.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6568</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001790</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4929</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8396</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0214</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4314</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4299</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>162201</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰达宏利成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3596</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>009968</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>金鹰内需成长混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>93.06</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>4.68</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3150</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>398051</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中海环保新能源混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>64.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2952</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2941</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2354</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2064</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1864</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009969</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011323</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001014</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融融安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009969</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>金鹰内需成长混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>93.06</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>398051</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中海环保新能源混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>64.20</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.84</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>210003</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>金鹰行业优势混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>88.41</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003853</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>金鹰信息产业股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>86.07</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005885</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>金鹰信息产业股票C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>86.07</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001014</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中融融安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>71.97</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>162201</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>泰达宏利成长混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005927</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>创金合信新能源汽车主题股票A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>94.28</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>8.55</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005928</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>创金合信新能源汽车主题股票C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>94.28</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>8.55</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001790</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国泰智能汽车股票A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002601</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中银证券价值精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>92.16</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>011323</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>国泰智能汽车股票C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002681</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>金鹰元和灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>82.48</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002682</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>金鹰元和灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>82.48</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>002844</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>金鹰多元策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>81.14</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>004223</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>金信多策略精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>94.85</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>9.41</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>009169</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>湘财长兴灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>74.89</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009170</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>湘财长兴灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>74.89</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>007501</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>万家科创主题3年封闭运作灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>78.84</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>501075</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>万家科创主题3年封闭运作灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>78.84</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>007802</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>兴全合泰混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>93.00</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>007803</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>兴全合泰混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>93.00</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>009651</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>海富通成长甄选混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>009652</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>海富通成长甄选混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1197,7 +1450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1218,15 +1471,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1238,26 +1501,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005076</t>
+          <t>001790</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>创金合信优选回报灵活配置混合</t>
+          <t>国泰智能汽车股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>67.15</t>
+          <t>71.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8.88</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4350</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1266,26 +1539,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005117</t>
+          <t>007802</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金信价值精选灵活配置混合A</t>
+          <t>兴全合泰混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>76.43</t>
+          <t>70.27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.8157</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1294,26 +1577,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005118</t>
+          <t>003853</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金信价值精选灵活配置混合C</t>
+          <t>金鹰信息产业股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>76.43</t>
+          <t>15.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4871</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1322,26 +1615,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005299</t>
+          <t>009147</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>万家成长优选灵活配置混合A</t>
+          <t>建信新能源行业股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.35</t>
+          <t>26.50</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6864</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1350,25 +1653,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005300</t>
+          <t>007803</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>万家成长优选灵活配置混合C</t>
+          <t>兴全合泰混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.35</t>
+          <t>12.11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6576</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1378,26 +1691,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005855</t>
+          <t>006972</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中科沃土沃瑞灵活配置混合A</t>
+          <t>金鹰民安回报一年定期开放混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>82.16</t>
+          <t>14.42</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>37.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6215</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1406,26 +1729,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005856</t>
+          <t>506001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中科沃土沃瑞灵活配置混合C</t>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>82.16</t>
+          <t>12.15</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>96.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5832</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1434,25 +1767,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006233</t>
+          <t>501075</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>万家汽车新趋势混合A</t>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>15.65</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5571</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1462,26 +1805,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>162201</t>
+          <t>005927</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>泰达宏利成长混合</t>
+          <t>创金合信新能源汽车主题股票A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>91.62</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4981</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1490,26 +1843,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>210003</t>
+          <t>005885</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>金鹰行业优势混合</t>
+          <t>金鹰信息产业股票C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>88.62</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3870</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1518,26 +1881,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006132</t>
+          <t>005928</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>万家智造优势混合A</t>
+          <t>创金合信新能源汽车主题股票C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.45</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3144</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1546,26 +1919,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006133</t>
+          <t>004265</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>万家智造优势混合C</t>
+          <t>金鹰民丰回报定期开放混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.45</t>
+          <t>6.61</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2631</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1574,26 +1957,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>006972</t>
+          <t>210003</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>金鹰民安回报一年定期开放混合A</t>
+          <t>金鹰行业优势混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>37.86</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1534</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1602,26 +1995,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>007735</t>
+          <t>162201</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>金鹰民安回报一年定期开放混合C</t>
+          <t>泰达宏利成长混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>37.86</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1441</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1630,26 +2033,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>501075</t>
+          <t>009432</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+          <t>德邦科技创新一年定期开放混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>79.63</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1658,26 +2071,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>007501</t>
+          <t>005299</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+          <t>万家成长优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>79.63</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>3</v>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1001</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1686,26 +2109,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>506001</t>
+          <t>002844</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+          <t>金鹰多元策略灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>96.44</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>2</v>
+          <t>54.19</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1714,26 +2147,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001279</t>
+          <t>007735</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中海积极增利灵活配置混合</t>
+          <t>金鹰民安回报一年定期开放混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>68.84</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7.36</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>2</v>
+          <t>37.86</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1742,26 +2185,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>011146</t>
+          <t>001279</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>创金合信气候变化责任投资股票A</t>
+          <t>中海积极增利灵活配置混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>80.36</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>8.88</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
+          <t>68.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1770,26 +2223,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>011147</t>
+          <t>006233</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>创金合信气候变化责任投资股票C</t>
+          <t>万家汽车新趋势混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>80.36</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>8.88</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1798,26 +2261,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>001790</t>
+          <t>005076</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>国泰智能汽车股票A</t>
+          <t>创金合信优选回报灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>6</v>
+          <t>67.15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1826,26 +2299,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>011323</t>
+          <t>008180</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>国泰智能汽车股票C</t>
+          <t>同泰慧利混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>6</v>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -1854,26 +2337,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>580006</t>
+          <t>011146</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>东吴新经济混合</t>
+          <t>创金合信气候变化责任投资股票A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>89.95</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6.12</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>7</v>
+          <t>80.36</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1882,26 +2375,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>002844</t>
+          <t>005117</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>金鹰多元策略灵活配置混合</t>
+          <t>金信价值精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>54.19</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>9.62</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>1</v>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1910,26 +2413,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>005927</t>
+          <t>005300</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>创金合信新能源汽车主题股票A</t>
+          <t>万家成长优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>81.95</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>9.14</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>2</v>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -1938,26 +2451,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>005928</t>
+          <t>008050</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>创金合信新能源汽车主题股票C</t>
+          <t>同泰慧择混合A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>81.95</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>9.14</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>2</v>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -1966,26 +2489,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>007802</t>
+          <t>006132</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>兴全合泰混合A</t>
+          <t>万家智造优势混合A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>87.46</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>4</v>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -1994,26 +2527,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>007803</t>
+          <t>011147</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>兴全合泰混合C</t>
+          <t>创金合信气候变化责任投资股票C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>87.46</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>4</v>
+          <t>80.36</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -2022,26 +2565,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>008050</t>
+          <t>005855</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>同泰慧择混合A</t>
+          <t>中科沃土沃瑞灵活配置混合A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>95.06</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>10</v>
+          <t>82.16</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -2050,25 +2603,35 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>008051</t>
+          <t>008093</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>同泰慧择混合C</t>
+          <t>同泰慧选混合A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>95.06</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2078,26 +2641,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>008093</t>
+          <t>009433</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>同泰慧选混合A</t>
+          <t>德邦科技创新一年定期开放混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>10</v>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -2106,26 +2679,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>008094</t>
+          <t>580006</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>同泰慧选混合C</t>
+          <t>东吴新经济混合</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>10</v>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -2134,26 +2717,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>003853</t>
+          <t>011323</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>金鹰信息产业股票A</t>
+          <t>国泰智能汽车股票C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>88.48</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>9.65</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>1</v>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -2162,26 +2755,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>005885</t>
+          <t>005856</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>金鹰信息产业股票C</t>
+          <t>中科沃土沃瑞灵活配置混合C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>88.48</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>9.65</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>1</v>
+          <t>82.16</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -2190,26 +2793,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>008180</t>
+          <t>008094</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>同泰慧利混合A</t>
+          <t>同泰慧选混合C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>8</v>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -2218,26 +2831,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>008181</t>
+          <t>006133</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>同泰慧利混合C</t>
+          <t>万家智造优势混合C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>8</v>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="38">
@@ -2246,26 +2869,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>004265</t>
+          <t>005118</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>金鹰民丰回报定期开放混合</t>
+          <t>金信价值精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>28.44</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>1</v>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -2274,26 +2907,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>009147</t>
+          <t>008051</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>建信新能源行业股票</t>
+          <t>同泰慧择混合C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>82.28</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>9</v>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -2302,26 +2945,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>009432</t>
+          <t>008181</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>德邦科技创新一年定期开放混合A</t>
+          <t>同泰慧利混合C</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>81.70</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>6</v>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -2330,26 +2983,30 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>009433</t>
+          <t>007501</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>德邦科技创新一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>81.70</t>
-        </is>
-      </c>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>6</v>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688005-容百科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688005-容百科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2991,7 +2992,6 @@
           <t>万家科创主题3年封闭运作灵活配置混合C</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
           <t>79.63</t>
@@ -3007,6 +3007,4196 @@
       </c>
       <c r="H41" t="n">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H110"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001790</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>109.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.4467</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>201.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.3850</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>106.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.7294</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>400015</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方新能源汽车主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>102.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.9348</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>113.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.7492</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>340007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全社会责任混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>71.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.1530</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005939</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>64.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.9706</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.1625</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.9937</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>37.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5771</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005940</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>33.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5316</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>32.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>55.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3345</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009474</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰致远优势混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>40.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3044</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005730</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>39.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2714</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2380</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>78.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1977</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>26.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0919</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>24.73</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9818</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>31.39</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9731</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9660</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>165516</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8510</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>28.57</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8485</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7761</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>398051</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中海环保新能源混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>16.99</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>73.80</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6371</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6058</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5171</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5020</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3694</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3619</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006972</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>15.69</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>38.38</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3342</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011323</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3337</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>15.43</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3333</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005630</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安研究精选混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3116</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3061</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2941</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2790</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2788</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>162201</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>泰达宏利成长混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2657</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>163503</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>天治核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2336</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2315</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011260</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2314</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011142</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2177</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009432</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>78.62</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2059</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010135</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1523</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1450</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011261</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>74.14</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1334</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>22.72</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1073</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>003190</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>万家人工智能混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011143</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>003191</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>000567</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>广发聚祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>78.08</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005076</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>创金合信优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011146</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>519025</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>海富通领先成长混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010136</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001229</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011325</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>38.38</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002106</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>620007</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>72.71</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>350005</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>天治中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001375</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>72.71</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011147</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009433</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>78.62</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005492</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>农银汇理研究驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>59.41</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>007257</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>凯石沣混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>65.63</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>66.67</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>65.22</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>008909</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>21.88</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>008910</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>21.88</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>007258</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>凯石沣混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>65.63</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>006942</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001657</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>长安鑫富领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>85.00</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>350008</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>天治新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>86.86</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>78.89</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>006943</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688005-容百科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688005-容百科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7145,7 +7146,6 @@
           <t>万家科创主题3年封闭运作灵活配置混合C</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
           <t>78.89</t>
@@ -7197,6 +7197,2756 @@
       </c>
       <c r="H110" t="n">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>222.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.3349</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>102.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.6131</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001790</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.3873</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>112.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.7267</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009556</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全合丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>84.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.6829</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>340007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全社会责任混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>63.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.7046</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>49.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0733</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002083</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>34.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6953</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>31.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3209</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2970</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>398051</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中海环保新能源混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>75.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2960</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1343</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>34.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1269</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0149</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.84</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8194</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011704</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>29.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>47.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6774</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002084</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6334</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5406</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3492</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2954</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2377</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005076</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2131</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011146</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1877</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1710</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009432</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>69.55</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1512</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003190</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1512</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009968</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1437</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011705</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>47.88</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003191</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1199</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011147</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011323</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005296</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南华丰淳混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009246</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫ESG量化先行混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001662</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>创金合信沪港深研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000877</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009969</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005297</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南华丰淳混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010303</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>970048</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东海证券海睿致远灵活配置混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>80.02</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001229</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>83.69</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>49.62</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009433</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>69.55</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002106</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>83.69</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010304</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008893</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>创金合信鑫利混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006942</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>97.35</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010001</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>81.46</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006601</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>69.48</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010002</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>81.46</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011442</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>创金合信鑫瑞混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>38.23</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011443</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>创金合信鑫瑞混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>38.23</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008894</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>创金合信鑫利混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>013442</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强E</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006602</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>69.48</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006943</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688005-容百科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688005-容百科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9952,4 +9953,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>71</v>
+      </c>
+      <c r="D2" t="n">
+        <v>49.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>109</v>
+      </c>
+      <c r="D3" t="n">
+        <v>69.29000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688005-容百科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688005-容百科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9961,7 +9962,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9972,17 +9973,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9992,14 +10013,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>71</v>
-      </c>
-      <c r="D2" t="n">
-        <v>49.55</v>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>102.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.9202</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -10008,14 +10051,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>109</v>
-      </c>
-      <c r="D3" t="n">
-        <v>69.29000000000001</v>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>206.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.8067</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -10024,14 +10089,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>40</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15.42</v>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>52.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.9813</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -10040,13 +10127,2697 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009556</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全合丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.4965</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>109.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.6077</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>340007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全社会责任混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>60.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.3269</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.5832</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>398051</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中海环保新能源混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.9801</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5709</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3693</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1796</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011704</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>30.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1682</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9771</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001790</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8182</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6929</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.36</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6004</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011146</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4119</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005076</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3948</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3244</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3003</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2912</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>19.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2830</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003190</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2816</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>588280</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安上证科创板50ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2743</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011705</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2447</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011147</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2344</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010137</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2244</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006818</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2139</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010001</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1953</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011323</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1294</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003191</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1281</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013639</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011793</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>71.64</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013396</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013395</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008909</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001662</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>创金合信沪港深研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>561350</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国泰中证500ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005296</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南华丰淳混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010857</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>35.88</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010303</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005297</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南华丰淳混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>165317</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>建信丰裕多策略灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001267</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>泰达宏利蓝筹价值混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005039</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>32.13</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013640</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006181</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010304</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010138</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006819</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006182</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011149</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005040</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>32.13</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010858</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>35.88</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011150</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010002</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008910</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>71</v>
+      </c>
+      <c r="D2" t="n">
+        <v>48.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>71</v>
+      </c>
+      <c r="D3" t="n">
+        <v>49.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>109</v>
+      </c>
+      <c r="D4" t="n">
+        <v>69.29000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>40</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>25</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>14.16</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688005-容百科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688005-容百科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12716,7 +12717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12727,17 +12728,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -12747,14 +12768,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>71</v>
-      </c>
-      <c r="D2" t="n">
-        <v>48.21</v>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>226.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.6771</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -12763,14 +12806,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>71</v>
-      </c>
-      <c r="D3" t="n">
-        <v>49.55</v>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>209.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.3788</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -12779,14 +12844,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>109</v>
-      </c>
-      <c r="D4" t="n">
-        <v>69.29000000000001</v>
+          <t>001790</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>83.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.1418</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -12795,14 +12882,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>40</v>
-      </c>
-      <c r="D5" t="n">
-        <v>15.42</v>
+          <t>009556</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全合丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.8090</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -12811,13 +12920,7613 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>105.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.9726</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.6960</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>42.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.0412</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009644</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>74.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.5300</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>340007</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全社会责任混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>49.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.3637</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000209</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>70.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.1838</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>67.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.0013</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005968</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信工业周期精选股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>66.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.9066</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>34.81</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.4680</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005939</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.3463</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>402.81</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.2155</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.0973</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>398051</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中海环保新能源混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>22.97</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>73.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.9915</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>39.16</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.8444</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012613</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信产业智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>42.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.8409</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009645</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>37.39</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.7685</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014639</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>55.51</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>68.89</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.6875</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001245</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信生态环境行业股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>57.90</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.5401</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏复兴混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.4807</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002083</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>29.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.4701</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>17.38</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.3643</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.3018</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>21.71</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.2939</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005940</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>50.08</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.1869</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011704</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>21.77</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.1690</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.0123</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>110010</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达价值成长混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>41.44</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.0111</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.9704</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011323</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>13.08</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.9666</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013160</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>创金合信碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.9221</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005969</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>创金合信工业周期精选股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>18.47</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.8108</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.7486</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.7139</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.6941</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007349</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>14.63</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.6905</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.23</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.6561</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002084</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>12.36</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.6242</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011206</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>创金合信竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.6020</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.5589</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.5499</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.5381</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012098</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏成长机会一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>67.27</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.5261</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.5082</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>31.17</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.4707</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>82.11</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.4681</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006250</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>上投摩根动力精选混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>14.94</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.4676</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004925</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.4099</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3933</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3606</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>013161</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>创金合信碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3525</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>60.13</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3427</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005076</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>创金合信优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.3340</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3321</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>213006</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>74.06</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3303</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3224</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3203</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3197</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3184</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>013641</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>博道成长智航股票A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>28.12</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.3178</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011146</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3107</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012850</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中融低碳经济3个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>65.64</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2930</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011705</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2878</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2587</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2460</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>36.91</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2104</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>012614</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>创金合信产业智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1875</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011147</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1699</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>27.79</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1695</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011142</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1645</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009623</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>81.88</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1540</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1499</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>519095</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>新华行业周期轮换混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>95.88</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1306</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010128</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1265</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010383</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>76.11</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1184</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1167</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>561550</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1133</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011207</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>创金合信竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>014640</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>68.89</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1079</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>013642</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>博道成长智航股票C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>16.77</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>003190</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>013639</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>74.39</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>002272</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>新华科技创新主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>588280</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华安上证科创板50ETF</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>003191</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>008640</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>方正富邦科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>506008</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>62.09</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010137</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>005894</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华夏优势精选股票</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>580006</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>东吴新经济混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>011143</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>562880</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>嘉实中证电池主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>98.50</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>001662</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>创金合信沪港深研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>561910</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>招商中证电池主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>011599</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>国联安匠心科技1个月滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>012851</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>中融低碳经济3个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>65.64</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>012696</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>010129</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>008641</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>方正富邦科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>95.76</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>000755</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>富安达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>009380</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>富安达科技领航混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>010303</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>008518</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>001421</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>南方量化成长股票</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>165317</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>建信丰裕多策略灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>001681</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>新华积极价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>85.41</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>96.08</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>014141</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>大成新能源混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>004332</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>恒生前海沪港深新兴产业精选混合</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>80.98</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>003182</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>华富弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>22.56</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>005039</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>28.36</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>006181</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>561350</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>国泰中证500ETF</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>96.89</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>012697</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>013640</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>010304</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>002135</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>010384</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>006818</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>010138</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>000241</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>74.06</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>001864</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>中海魅力长三角灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>006182</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>006819</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>005040</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>28.36</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>003183</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>华富弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>22.56</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>96.76</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>001659</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>富安达新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>62.09</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>006689</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>010001</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>008182</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>010002</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>008909</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合A</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>014142</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>大成新能源混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>008910</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>002136</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G202" t="n">
+        <v>0</v>
+      </c>
+      <c r="H202" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>201</v>
+      </c>
+      <c r="D2" t="n">
+        <v>115.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>71</v>
+      </c>
+      <c r="D3" t="n">
+        <v>48.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>71</v>
+      </c>
+      <c r="D4" t="n">
+        <v>49.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>109</v>
+      </c>
+      <c r="D5" t="n">
+        <v>69.29000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>40</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15.42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>25</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>14.16</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688005-容百科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688005-容百科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20409,7 +20410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20420,17 +20421,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -20440,14 +20461,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>201</v>
-      </c>
-      <c r="D2" t="n">
-        <v>115.14</v>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>282.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.6529</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -20456,14 +20499,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>71</v>
-      </c>
-      <c r="D3" t="n">
-        <v>48.21</v>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>181.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.8547</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -20472,14 +20537,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>71</v>
-      </c>
-      <c r="D4" t="n">
-        <v>49.55</v>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.8440</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -20488,14 +20575,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>109</v>
-      </c>
-      <c r="D5" t="n">
-        <v>69.29000000000001</v>
+          <t>001790</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.1866</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -20504,14 +20613,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>40</v>
-      </c>
-      <c r="D6" t="n">
-        <v>15.42</v>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>127.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.8297</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -20520,13 +20651,5603 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>009556</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全合丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.7922</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>63.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.3920</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>340007</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全社会责任混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>54.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.3652</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.2845</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014639</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>61.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.1248</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>398051</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中海环保新能源混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.1061</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>59.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.0965</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002083</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>38.74</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.9602</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏复兴混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>30.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.8343</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.7738</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.7737</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.6792</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>44.44</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.6709</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001245</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信生态环境行业股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>47.84</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.4161</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015002</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银生态环境股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>47.84</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.4161</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>32.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.2138</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005939</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>49.42</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>62.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.1713</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.1638</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005940</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>46.96</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>62.11</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.1130</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011323</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.0623</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.9008</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>14.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8821</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002084</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.8698</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007349</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>16.57</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.8467</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013160</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>创金合信碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.8269</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012765</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发大盘价值混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.7769</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>12.62</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.7761</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.7620</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>17.78</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.7503</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.6127</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6068</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.6062</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>12.09</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.6009</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>15.90</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5883</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5592</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.5058</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4917</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>213006</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>74.27</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4428</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>11.74</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4379</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4232</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4227</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>18.53</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3928</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010149</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3903</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004925</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3494</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>工银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3316</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013161</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>创金合信碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3077</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011146</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2988</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005076</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>创金合信优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2592</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2540</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>673050</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>西部利得新盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2174</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2164</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014640</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>77.23</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2148</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2073</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012766</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发大盘价值混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2006</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1955</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011147</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1815</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010383</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1675</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>163503</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>天治核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1517</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001192</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>上投摩根整合驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1488</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>519095</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>新华行业周期轮换混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1423</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1397</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>014175</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>工银价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002272</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>新华科技创新主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>506008</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>76.10</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>004982</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>新华安享多裕定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>34.25</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>77.45</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>78.07</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>014339</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>长江智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>69.26</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>004260</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>德邦稳盈增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>49.51</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>015048</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>588280</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华安上证科创板50ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010137</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>013151</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010148</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001421</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>南方量化成长股票</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001662</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>创金合信沪港深研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011599</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>国联安匠心科技1个月滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010303</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>007137</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>165317</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>建信丰裕多策略灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>009103</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>鹏扬红利优选混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>014176</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>工银价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>005027</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>56.79</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>008518</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>233015</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫量化配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>007138</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>009102</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>鹏扬红利优选混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>006072</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>006887</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>诺德新生活混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>天治低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>005039</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>008541</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>西部利得新享混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>004481</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华宝第三产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>010384</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>006644</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010304</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>004641</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>000241</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>74.27</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010138</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>001864</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>中海魅力长三角灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>72.66</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>009855</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>005040</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>006181</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>006182</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>009856</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>013312</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>工银主题策略混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>014422</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>76.10</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>014340</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>长江智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>69.26</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>015073</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>华夏复兴混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>008542</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>西部利得新享混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>001466</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>华富永鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>37.28</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>001467</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>华富永鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>37.28</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>004834</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>167003</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>平安鼎弘混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>009905</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>004833</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>010228</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>平安鼎弘混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>010229</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>平安鼎弘混合（LOF）D</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>008305</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫量化配置混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>006888</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>诺德新生活混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>012798</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>华宝第三产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>014171</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>014929</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>149</v>
+      </c>
+      <c r="D2" t="n">
+        <v>95.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>201</v>
+      </c>
+      <c r="D3" t="n">
+        <v>115.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>71</v>
+      </c>
+      <c r="D4" t="n">
+        <v>48.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>71</v>
+      </c>
+      <c r="D5" t="n">
+        <v>49.55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>109</v>
+      </c>
+      <c r="D6" t="n">
+        <v>69.29000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>40</v>
+      </c>
+      <c r="D7" t="n">
+        <v>15.42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>25</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>14.16</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688005-容百科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688005-容百科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>95.69</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>201</v>
+        <v>149</v>
       </c>
       <c r="D3" t="n">
-        <v>115.14</v>
+        <v>95.69</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="D4" t="n">
-        <v>48.21</v>
+        <v>115.14</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>71</v>
       </c>
       <c r="D5" t="n">
-        <v>49.55</v>
+        <v>48.21</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="D6" t="n">
-        <v>69.29000000000001</v>
+        <v>49.55</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="D7" t="n">
-        <v>15.42</v>
+        <v>69.29000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>40</v>
+      </c>
+      <c r="D8" t="n">
+        <v>15.42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>25</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>14.16</v>
       </c>
     </row>
@@ -600,6 +617,1162 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001790</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8193</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2220</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2154</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7038</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011323</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5888</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000986</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>太平灵活配置混合型发起式</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5391</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3982</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012765</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发大盘价值混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3770</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013160</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3398</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>69.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3216</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004925</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2335</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013161</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2101</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005037</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华新能源新材料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1868</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012766</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发大盘价值混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>74.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005038</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华新能源新材料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010137</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013151</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009537</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>太平行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001662</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001421</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方量化成长股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>165317</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信丰裕多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010303</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009538</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>太平行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010304</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006182</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010138</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006181</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>016616</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6303,7 +7476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13988,2760 +15161,6 @@
       </c>
       <c r="H202" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H72"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>007802</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>兴全合泰混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>102.37</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.38</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.76</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6.9202</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>588000</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>206.89</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.65</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>6.8067</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005927</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>创金合信新能源汽车主题股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>52.49</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.27</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.49</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>4.9813</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009556</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>兴全合丰三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>84.68</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.91</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>4.4965</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>588080</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>109.99</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>99.71</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>3.6077</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>340007</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>兴全社会责任混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>60.71</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.98</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>3.3269</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005928</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>创金合信新能源汽车主题股票C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>27.22</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.27</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>9.49</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2.5832</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>398051</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中海环保新能源混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>26.94</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>76.53</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7.35</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.9801</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>588050</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>工银瑞信上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>48.04</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>99.49</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.5709</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>506000</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>南方科创板 3 年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>35.11</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.68</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1.3693</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007803</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>兴全合泰混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>17.45</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.38</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>6.76</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1.1796</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>011704</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>东方阿尔法产业先锋混合型发起式证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>30.03</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1.1682</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>588090</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华泰柏瑞上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>29.52</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>99.50</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.9771</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001790</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国泰智能汽车股票A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>13.66</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.8182</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>011104</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>光大保德信智能汽车主题股票</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>13.64</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>90.18</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.6929</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>588180</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>18.36</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>97.96</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.6004</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>011146</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>创金合信气候变化责任投资股票A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.60</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>9.49</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.4119</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005076</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>创金合信优选回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.52</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>9.16</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.3948</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>210003</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>金鹰行业优势混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>8.84</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>85.57</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.3244</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>001279</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中海积极增利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>90.23</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>7.84</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.3003</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>020026</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>国泰成长优选混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>8.72</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>93.35</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.2912</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>001557</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>天弘中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>19.12</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.2830</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>003190</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>创金合信消费主题股票A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>93.52</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.2816</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>588280</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>华安上证科创板50ETF</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>8.60</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>96.94</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.2743</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>011705</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>东方阿尔法产业先锋混合型发起式证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>6.29</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.2447</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>011147</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>创金合信气候变化责任投资股票C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>93.60</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>9.49</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.2344</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>010137</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化创享混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>10.84</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>87.91</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.2244</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>006818</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>安信盈利驱动股票A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>82.14</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.2139</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>010001</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>创金合信研究精选股票A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>90.71</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>7.51</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.1953</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>011323</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>国泰智能汽车股票C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.1294</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>003191</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>创金合信消费主题股票C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>93.52</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.1281</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>013639</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>光大保德信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>91.18</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0959</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>011793</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>建信智能汽车股票</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>71.64</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0937</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>013396</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>华夏新能源车龙头混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>92.60</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0909</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>588060</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>99.30</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0808</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>007439</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>东海科技动力混合A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>87.43</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0763</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>162216</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>泰达宏利中证500指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>94.14</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0743</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>013395</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>华夏新能源车龙头混合A</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>92.60</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0732</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>008909</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>创金合信鑫益混合A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>91.65</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0702</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>009608</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>广发中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0680</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>001662</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>创金合信沪港深研究精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0562</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>561350</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>国泰中证500ETF</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>7.28</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>97.45</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0510</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>005296</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>南华丰淳混合A</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0508</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>010857</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>宝盈祥乐一年持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>35.88</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0454</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>010303</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化创盈混合A</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>90.48</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0373</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>005297</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>南华丰淳混合C</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0282</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>165317</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>建信丰裕多策略灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>91.51</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0257</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>001267</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>泰达宏利蓝筹价值混合</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0252</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>005039</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>鹏扬景兴混合A</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>32.13</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0185</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>013640</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>光大保德信中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>91.18</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0154</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>006181</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>格林伯锐灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>78.47</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0148</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>010304</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化创盈混合C</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>90.48</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0115</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>002907</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>南方中证500量化增强股票C</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>92.65</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0097</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>007463</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>东海科技动力混合C</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>87.43</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0086</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>010138</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化创享混合C</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>87.91</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0085</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>006819</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>安信盈利驱动股票C</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>82.14</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0071</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>001198</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>东方惠新灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>93.97</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>002163</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>东方惠新灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>93.97</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0065</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>006182</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>格林伯锐灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>78.47</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0064</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>009609</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>广发中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0063</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>011149</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>创金合信ESG责任投资股票A</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>87.37</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>002906</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>南方中证500量化增强股票A</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>92.65</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0053</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>005607</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>华宝中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0053</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>005040</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>鹏扬景兴混合C</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>32.13</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>010858</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>宝盈祥乐一年持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>35.88</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0.0032</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>011150</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>创金合信ESG责任投资股票C</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>87.37</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>005608</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>华宝中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>001556</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>天弘中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>010002</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>创金合信研究精选股票C</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>90.71</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>7.51</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>006538</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>东海核心价值精选混合</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>87.76</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>008910</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>创金合信鑫益混合C</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>91.65</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -16776,7 +15195,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -16806,36 +15225,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>588000</t>
+          <t>007802</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏上证科创板50成份ETF</t>
+          <t>兴全合泰混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>222.79</t>
+          <t>102.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.58</t>
+          <t>93.38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>9.3349</t>
+          <t>6.9202</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -16844,36 +15263,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007802</t>
+          <t>588000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>兴全合泰混合A</t>
+          <t>华夏上证科创板50成份ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>102.37</t>
+          <t>206.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.61</t>
+          <t>99.65</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.46</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6.6131</t>
+          <t>6.8067</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -16882,36 +15301,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001790</t>
+          <t>005927</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰智能汽车股票A</t>
+          <t>创金合信新能源汽车主题股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.31</t>
+          <t>52.49</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.49</t>
+          <t>94.27</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>9.49</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5.3873</t>
+          <t>4.9813</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -16920,36 +15339,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>588080</t>
+          <t>009556</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达上证科创板50成份ETF</t>
+          <t>兴全合丰三年持有期混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>112.81</t>
+          <t>84.68</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>99.84</t>
+          <t>94.91</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4.7267</t>
+          <t>4.4965</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -16958,36 +15377,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009556</t>
+          <t>588080</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>兴全合丰三年持有期混合</t>
+          <t>易方达上证科创板50成份ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>84.86</t>
+          <t>109.99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.55</t>
+          <t>99.71</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.6829</t>
+          <t>3.6077</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -17006,26 +15425,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>63.34</t>
+          <t>60.71</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.66</t>
+          <t>94.98</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.7046</t>
+          <t>3.3269</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -17034,36 +15453,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>588050</t>
+          <t>005928</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>工银瑞信上证科创板50成份ETF</t>
+          <t>创金合信新能源汽车主题股票C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>49.72</t>
+          <t>27.22</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>99.52</t>
+          <t>94.27</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>9.49</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.0733</t>
+          <t>2.5832</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -17072,36 +15491,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002083</t>
+          <t>398051</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>新华鑫动力灵活配置混合A</t>
+          <t>中海环保新能源混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>34.74</t>
+          <t>26.94</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>76.53</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.6953</t>
+          <t>1.9801</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -17110,36 +15529,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>588090</t>
+          <t>588050</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华泰柏瑞上证科创板50成份ETF</t>
+          <t>工银瑞信上证科创板50成份ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>31.45</t>
+          <t>48.04</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>99.71</t>
+          <t>99.49</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.3209</t>
+          <t>1.5709</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -17148,36 +15567,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011104</t>
+          <t>506000</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>光大保德信智能汽车主题股票</t>
+          <t>南方科创板 3 年定期开放混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>18.14</t>
+          <t>35.11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>88.22</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7.15</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.2970</t>
+          <t>1.3693</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -17186,36 +15605,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>398051</t>
+          <t>007803</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中海环保新能源混合</t>
+          <t>兴全合泰混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>23.06</t>
+          <t>17.45</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>75.42</t>
+          <t>93.38</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.2960</t>
+          <t>1.1796</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -17224,36 +15643,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>360006</t>
+          <t>011704</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>光大保德信新增长混合</t>
+          <t>东方阿尔法产业先锋混合型发起式证券投资基金A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>25.78</t>
+          <t>30.03</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>87.81</t>
+          <t>93.83</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.1343</t>
+          <t>1.1682</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -17262,36 +15681,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>506000</t>
+          <t>588090</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>南方科创板 3 年定期开放混合</t>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>34.78</t>
+          <t>29.52</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>99.50</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.1269</t>
+          <t>0.9771</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -17300,36 +15719,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>007803</t>
+          <t>001790</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>兴全合泰混合C</t>
+          <t>国泰智能汽车股票A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>15.71</t>
+          <t>13.66</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.61</t>
+          <t>94.26</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>6.46</t>
+          <t>5.99</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.0149</t>
+          <t>0.8182</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -17338,36 +15757,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>588180</t>
+          <t>011104</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
+          <t>光大保德信智能汽车主题股票</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>19.84</t>
+          <t>13.64</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>98.28</t>
+          <t>90.18</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.8194</t>
+          <t>0.6929</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -17376,36 +15795,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>011704</t>
+          <t>588180</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>东方阿尔法产业先锋混合型发起式证券投资基金A</t>
+          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>29.71</t>
+          <t>18.36</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>47.88</t>
+          <t>97.96</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.6774</t>
+          <t>0.6004</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -17414,36 +15833,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>002084</t>
+          <t>011146</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>新华鑫动力灵活配置混合C</t>
+          <t>创金合信气候变化责任投资股票A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>12.98</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>93.60</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>9.49</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.6334</t>
+          <t>0.4119</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -17452,36 +15871,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001740</t>
+          <t>005076</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>光大保德信中国制造2025灵活配置混合</t>
+          <t>创金合信优选回报灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>13.79</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>93.52</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>9.16</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.5406</t>
+          <t>0.3948</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -17490,32 +15909,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>360007</t>
+          <t>210003</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>光大保德信优势配置混合</t>
+          <t>金鹰行业优势混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>11.64</t>
+          <t>8.84</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>88.32</t>
+          <t>85.57</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.3492</t>
+          <t>0.3244</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -17528,36 +15947,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>210003</t>
+          <t>001279</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>金鹰行业优势混合</t>
+          <t>中海积极增利灵活配置混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>7.24</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>88.88</t>
+          <t>90.23</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>7.84</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.2954</t>
+          <t>0.3003</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -17566,32 +15985,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>010676</t>
+          <t>020026</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>光大保德信新机遇混合</t>
+          <t>国泰成长优选混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>8.72</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>92.91</t>
+          <t>93.35</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.2377</t>
+          <t>0.2912</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -17604,36 +16023,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>005076</t>
+          <t>001557</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>创金合信优选回报灵活配置混合</t>
+          <t>天弘中证500指数增强C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>19.12</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>93.96</t>
+          <t>94.71</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.2131</t>
+          <t>0.2830</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -17642,36 +16061,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>011146</t>
+          <t>003190</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>创金合信气候变化责任投资股票A</t>
+          <t>创金合信消费主题股票A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>93.53</t>
+          <t>93.52</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.1877</t>
+          <t>0.2816</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -17680,36 +16099,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>001279</t>
+          <t>588280</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中海积极增利灵活配置混合</t>
+          <t>华安上证科创板50ETF</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>8.60</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>88.36</t>
+          <t>96.94</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.1710</t>
+          <t>0.2743</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -17718,36 +16137,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>009432</t>
+          <t>011705</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>德邦科技创新一年定期开放混合A</t>
+          <t>东方阿尔法产业先锋混合型发起式证券投资基金C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>6.29</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>69.55</t>
+          <t>93.83</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.1620</t>
+          <t>0.2447</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -17756,36 +16175,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>008313</t>
+          <t>011147</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>光大保德信研究精选混合</t>
+          <t>创金合信气候变化责任投资股票C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>93.60</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>9.49</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.1512</t>
+          <t>0.2344</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -17794,36 +16213,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>003190</t>
+          <t>010137</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>创金合信消费主题股票A</t>
+          <t>华泰柏瑞量化创享混合A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>10.84</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>87.91</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.1512</t>
+          <t>0.2244</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -17832,36 +16251,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>009968</t>
+          <t>006818</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>金鹰内需成长混合A</t>
+          <t>安信盈利驱动股票A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>83.68</t>
+          <t>82.14</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.1437</t>
+          <t>0.2139</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -17870,36 +16289,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>011705</t>
+          <t>010001</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>东方阿尔法产业先锋混合型发起式证券投资基金C</t>
+          <t>创金合信研究精选股票A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>5.66</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>47.88</t>
+          <t>90.71</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>7.51</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.1290</t>
+          <t>0.1953</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -17908,32 +16327,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>003191</t>
+          <t>011323</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>创金合信消费主题股票C</t>
+          <t>国泰智能汽车股票C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>94.26</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>5.99</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.1199</t>
+          <t>0.1294</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -17946,36 +16365,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>460009</t>
+          <t>003191</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化先行混合A</t>
+          <t>创金合信消费主题股票C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>13.04</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>90.65</t>
+          <t>93.52</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.1030</t>
+          <t>0.1281</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -17984,36 +16403,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>011147</t>
+          <t>013639</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>创金合信气候变化责任投资股票C</t>
+          <t>光大保德信中证500指数增强A</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>93.53</t>
+          <t>91.18</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0978</t>
+          <t>0.0959</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -18022,36 +16441,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>011323</t>
+          <t>011793</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>国泰智能汽车股票C</t>
+          <t>建信智能汽车股票</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>93.49</t>
+          <t>71.64</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.0879</t>
+          <t>0.0937</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -18060,36 +16479,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>588060</t>
+          <t>013396</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
+          <t>华夏新能源车龙头混合C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>99.21</t>
+          <t>92.60</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.0853</t>
+          <t>0.0909</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -18098,36 +16517,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>002871</t>
+          <t>588060</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>华夏智胜价值成长股票A</t>
+          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>8.46</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>92.54</t>
+          <t>99.30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.0795</t>
+          <t>0.0808</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -18136,36 +16555,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>005296</t>
+          <t>007439</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>南华丰淳混合A</t>
+          <t>东海科技动力混合A</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>93.44</t>
+          <t>87.43</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.0731</t>
+          <t>0.0763</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -18174,36 +16593,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>002872</t>
+          <t>162216</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>华夏智胜价值成长股票C</t>
+          <t>泰达宏利中证500指数增强（LOF）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>6.59</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>92.54</t>
+          <t>94.14</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.0619</t>
+          <t>0.0743</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -18212,36 +16631,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>009246</t>
+          <t>013395</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫ESG量化先行混合</t>
+          <t>华夏新能源车龙头混合A</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>92.60</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.0565</t>
+          <t>0.0732</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -18250,32 +16669,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>001662</t>
+          <t>008909</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>创金合信沪港深研究精选灵活配置混合</t>
+          <t>创金合信鑫益混合A</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>91.44</t>
+          <t>91.65</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.0529</t>
+          <t>0.0702</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -18288,36 +16707,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>000877</t>
+          <t>009608</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化优选灵活配置混合</t>
+          <t>广发中证500指数增强A</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>90.44</t>
+          <t>94.68</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.0527</t>
+          <t>0.0680</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -18326,36 +16745,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>009969</t>
+          <t>001662</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>金鹰内需成长混合C</t>
+          <t>创金合信沪港深研究精选灵活配置混合</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>83.68</t>
+          <t>94.72</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>5.46</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.0455</t>
+          <t>0.0562</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
@@ -18364,36 +16783,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>003646</t>
+          <t>561350</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>创金合信中证1000指数增强A</t>
+          <t>国泰中证500ETF</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>97.45</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.0358</t>
+          <t>0.0510</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -18402,36 +16821,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>005297</t>
+          <t>005296</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>南华丰淳混合C</t>
+          <t>南华丰淳混合A</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>93.44</t>
+          <t>93.84</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.0347</t>
+          <t>0.0508</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -18440,36 +16859,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>002210</t>
+          <t>010857</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>创金合信量化多因子股票A</t>
+          <t>宝盈祥乐一年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>90.17</t>
+          <t>35.88</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.0340</t>
+          <t>0.0454</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -18488,26 +16907,26 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
           <t>2.06</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>85.99</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.0336</t>
+          <t>0.0373</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -18516,32 +16935,32 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>970048</t>
+          <t>005297</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>东海证券海睿致远灵活配置混合型集合资产管理计划</t>
+          <t>南华丰淳混合C</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>80.02</t>
+          <t>93.84</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.0287</t>
+          <t>0.0282</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -18554,36 +16973,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>006165</t>
+          <t>165317</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>建信中证1000指数增强A</t>
+          <t>建信丰裕多策略灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>93.16</t>
+          <t>91.51</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.0273</t>
+          <t>0.0257</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -18592,36 +17011,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>001229</t>
+          <t>001267</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>德邦福鑫灵活配置混合A</t>
+          <t>泰达宏利蓝筹价值混合</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>83.69</t>
+          <t>94.52</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.0270</t>
+          <t>0.0252</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -18630,36 +17049,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>003647</t>
+          <t>005039</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>创金合信中证1000指数增强C</t>
+          <t>鹏扬景兴混合A</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>32.13</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.0267</t>
+          <t>0.0185</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -18668,32 +17087,32 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>005444</t>
+          <t>013640</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+          <t>光大保德信中证500指数增强C</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>49.62</t>
+          <t>91.18</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.0211</t>
+          <t>0.0154</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -18706,36 +17125,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>009433</t>
+          <t>006181</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>德邦科技创新一年定期开放混合C</t>
+          <t>格林伯锐灵活配置混合A</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>69.55</t>
+          <t>78.47</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.0196</t>
+          <t>0.0148</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
@@ -18744,36 +17163,36 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>010246</t>
+          <t>010304</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化先行混合C</t>
+          <t>华泰柏瑞量化创盈混合C</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>90.65</t>
+          <t>90.48</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0.0161</t>
+          <t>0.0115</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -18782,32 +17201,32 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>002106</t>
+          <t>002907</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>德邦福鑫灵活配置混合C</t>
+          <t>南方中证500量化增强股票C</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>83.69</t>
+          <t>92.65</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0.0150</t>
+          <t>0.0097</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -18820,36 +17239,36 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>010304</t>
+          <t>007463</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化创盈混合C</t>
+          <t>东海科技动力混合C</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>85.99</t>
+          <t>87.43</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0.0103</t>
+          <t>0.0086</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
@@ -18858,36 +17277,36 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>006166</t>
+          <t>010138</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>建信中证1000指数增强C</t>
+          <t>华泰柏瑞量化创享混合C</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>93.16</t>
+          <t>87.91</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0.0070</t>
+          <t>0.0085</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
@@ -18896,36 +17315,36 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>008893</t>
+          <t>006819</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>创金合信鑫利混合A</t>
+          <t>安信盈利驱动股票C</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>27.74</t>
+          <t>82.14</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>6.98</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.0063</t>
+          <t>0.0071</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -18934,32 +17353,32 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>003865</t>
+          <t>001198</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>创金合信量化多因子股票C</t>
+          <t>东方惠新灵活配置混合A</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>90.17</t>
+          <t>93.97</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0.0038</t>
+          <t>0.0070</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -18972,36 +17391,36 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>006942</t>
+          <t>002163</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化明选混合A</t>
+          <t>东方惠新灵活配置混合C</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>89.96</t>
+          <t>93.97</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0.0034</t>
+          <t>0.0065</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -19010,36 +17429,36 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>005260</t>
+          <t>006182</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>银华稳健增利灵活配置混合A</t>
+          <t>格林伯锐灵活配置混合C</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>92.17</t>
+          <t>78.47</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0.0027</t>
+          <t>0.0064</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
@@ -19048,32 +17467,32 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>516300</t>
+          <t>009609</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证1000ETF</t>
+          <t>广发中证500指数增强C</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>97.35</t>
+          <t>94.68</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0.0026</t>
+          <t>0.0063</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -19086,36 +17505,36 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>162413</t>
+          <t>011149</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>华宝中证1000指数</t>
+          <t>创金合信ESG责任投资股票A</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>87.37</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0.0025</t>
+          <t>0.0056</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63">
@@ -19124,36 +17543,36 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>010001</t>
+          <t>002906</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>创金合信研究精选股票A</t>
+          <t>南方中证500量化增强股票A</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>81.46</t>
+          <t>92.65</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0.0022</t>
+          <t>0.0053</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
@@ -19162,36 +17581,36 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>006601</t>
+          <t>005607</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>国融融泰灵活配置混合A</t>
+          <t>华宝中证500指数增强A</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>69.48</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0.0015</t>
+          <t>0.0053</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65">
@@ -19200,36 +17619,36 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>010002</t>
+          <t>005040</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>创金合信研究精选股票C</t>
+          <t>鹏扬景兴混合C</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>81.46</t>
+          <t>32.13</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0.0011</t>
+          <t>0.0050</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
@@ -19238,36 +17657,36 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>011442</t>
+          <t>010858</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>创金合信鑫瑞混合A</t>
+          <t>宝盈祥乐一年持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>38.23</t>
+          <t>35.88</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0.0008</t>
+          <t>0.0032</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
@@ -19276,36 +17695,36 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>011443</t>
+          <t>011150</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>创金合信鑫瑞混合C</t>
+          <t>创金合信ESG责任投资股票C</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>38.23</t>
+          <t>87.37</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0.0008</t>
+          <t>0.0027</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
@@ -19314,36 +17733,36 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>008894</t>
+          <t>005608</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>创金合信鑫利混合C</t>
+          <t>华宝中证500指数增强C</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>27.74</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>6.98</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0020</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69">
@@ -19352,32 +17771,32 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>005261</t>
+          <t>001556</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>银华稳健增利灵活配置混合C</t>
+          <t>天弘中证500指数增强A</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>92.17</t>
+          <t>94.71</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.0015</t>
         </is>
       </c>
       <c r="H69" t="n">
@@ -19390,36 +17809,36 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>013442</t>
+          <t>010002</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>建信中证1000指数增强E</t>
+          <t>创金合信研究精选股票C</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>93.16</t>
+          <t>90.71</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>7.51</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.0015</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -19428,34 +17847,36 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>006602</t>
+          <t>006538</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>国融融泰灵活配置混合C</t>
+          <t>东海核心价值精选混合</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>69.48</t>
+          <t>87.76</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
       </c>
       <c r="H71" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
@@ -19464,34 +17885,36 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>006943</t>
+          <t>008910</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化明选混合C</t>
+          <t>创金合信鑫益混合C</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>89.96</t>
+          <t>91.65</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
       </c>
       <c r="H72" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -19500,6 +17923,2756 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>222.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.3349</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>102.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.6131</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001790</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.3873</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>112.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.7267</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009556</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全合丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>84.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.6829</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>340007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全社会责任混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>63.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.7046</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>49.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0733</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002083</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>34.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6953</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>31.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3209</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2970</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>398051</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中海环保新能源混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>75.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2960</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1343</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>34.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1269</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0149</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.84</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8194</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011704</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>29.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>47.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6774</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002084</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6334</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5406</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3492</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2954</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2377</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005076</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2131</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011146</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1877</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1710</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009432</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>69.55</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1512</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003190</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1512</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009968</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1437</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011705</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>47.88</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003191</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1199</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011147</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011323</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005296</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南华丰淳混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009246</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫ESG量化先行混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001662</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>创金合信沪港深研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000877</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009969</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005297</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南华丰淳混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010303</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>970048</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东海证券海睿致远灵活配置混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>80.02</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001229</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>83.69</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>49.62</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009433</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>69.55</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002106</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>83.69</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010304</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008893</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>创金合信鑫利混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006942</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>97.35</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010001</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>81.46</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006601</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>69.48</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010002</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>81.46</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011442</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>创金合信鑫瑞混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>38.23</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011443</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>创金合信鑫瑞混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>38.23</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008894</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>创金合信鑫利混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>013442</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强E</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006602</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>69.48</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006943</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -23688,7 +24861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -25257,7 +26430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
